--- a/va_facility_data_2025-02-20/Clarksville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clarksville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Clarksville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clarksville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R007dc9451d0b47bfa200af9197a862e7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2b40c3312cf54be1bb2cce0858403cc1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R88cf1b2d28434abbb0235375c6326d32"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8e5c0133cf6a47eba4c93ed44e33ec41"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf9dce7007bdc4b279a614ef4e93fc0b3"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R99a40bfb717e4185b2aabf535578581c"/>
   </x:sheets>
 </x:workbook>
 </file>
